--- a/scene_cat_exp_2023.2.2_english/input_files/54_scenecat_categorization_living_rooms_1.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/54_scenecat_categorization_living_rooms_1.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -512,38 +512,38 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_zxvl3.png</t>
+          <t>stimuli/img_wgddx.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>68.78260869565217</v>
+        <v>45.6304347826087</v>
       </c>
       <c r="N2">
-        <v>47.56521739130435</v>
+        <v>34.30434782608695</v>
       </c>
       <c r="O2">
-        <v>58.17391304347827</v>
+        <v>39.96739130434783</v>
       </c>
       <c r="P2">
         <v>46</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -574,35 +574,35 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_c30d1.png</t>
+          <t>stimuli/img_a9he3.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>78.875</v>
+        <v>83.06521739130434</v>
       </c>
       <c r="N3">
-        <v>60.34375</v>
+        <v>63.95652173913044</v>
       </c>
       <c r="O3">
-        <v>69.609375</v>
+        <v>73.51086956521739</v>
       </c>
       <c r="P3">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>165</v>
+        <v>327</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -666,38 +666,38 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_jkm86.png</t>
+          <t>stimuli/img_pbsj1.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>58.32558139534883</v>
+        <v>73.88636363636364</v>
       </c>
       <c r="N4">
-        <v>38.65116279069768</v>
+        <v>51.52272727272727</v>
       </c>
       <c r="O4">
-        <v>48.48837209302326</v>
+        <v>62.70454545454545</v>
       </c>
       <c r="P4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>166</v>
+        <v>328</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -743,38 +743,38 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_o30wb.png</t>
+          <t>stimuli/img_i6wsx.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>81.06666666666666</v>
+        <v>79.07142857142857</v>
       </c>
       <c r="N5">
-        <v>65.37777777777778</v>
+        <v>58</v>
       </c>
       <c r="O5">
-        <v>73.22222222222223</v>
+        <v>68.53571428571428</v>
       </c>
       <c r="P5">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -796,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>167</v>
+        <v>329</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -805,53 +805,53 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_jpldg.png</t>
+          <t>stimuli/img_ymgcb.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>79.54545454545455</v>
+        <v>83.73684210526316</v>
       </c>
       <c r="N6">
-        <v>57.75</v>
+        <v>61.13157894736842</v>
       </c>
       <c r="O6">
-        <v>68.64772727272728</v>
+        <v>72.43421052631579</v>
       </c>
       <c r="P6">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -873,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>168</v>
+        <v>330</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -882,53 +882,53 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_165pk.png</t>
+          <t>stimuli/img_7caxh.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>85.73333333333333</v>
+        <v>83.38095238095238</v>
       </c>
       <c r="N7">
-        <v>69.22222222222223</v>
+        <v>64.26190476190476</v>
       </c>
       <c r="O7">
-        <v>77.47777777777779</v>
+        <v>73.82142857142857</v>
       </c>
       <c r="P7">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -950,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>169</v>
+        <v>331</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -959,53 +959,53 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_lgyo6.png</t>
+          <t>stimuli/img_dg5h7.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>54.68421052631579</v>
+        <v>88.72093023255815</v>
       </c>
       <c r="N8">
-        <v>27.18421052631579</v>
+        <v>76.06976744186046</v>
       </c>
       <c r="O8">
-        <v>40.93421052631579</v>
+        <v>82.3953488372093</v>
       </c>
       <c r="P8">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1027,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>170</v>
+        <v>332</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1036,53 +1036,53 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_pbsj1.png</t>
+          <t>stimuli/img_xtb79.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>73.88636363636364</v>
+        <v>55.59375</v>
       </c>
       <c r="N9">
-        <v>51.52272727272727</v>
+        <v>31.40625</v>
       </c>
       <c r="O9">
-        <v>62.70454545454545</v>
+        <v>43.5</v>
       </c>
       <c r="P9">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1104,7 +1104,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>171</v>
+        <v>333</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1128,35 +1128,35 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_wgddx.png</t>
+          <t>stimuli/img_w8yhd.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>45.6304347826087</v>
+        <v>55.74418604651163</v>
       </c>
       <c r="N10">
-        <v>34.30434782608695</v>
+        <v>38.90697674418605</v>
       </c>
       <c r="O10">
-        <v>39.96739130434783</v>
+        <v>47.32558139534883</v>
       </c>
       <c r="P10">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V10">
         <v>4</v>
@@ -1181,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>172</v>
+        <v>334</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1190,53 +1190,53 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_th7xh.png</t>
+          <t>stimuli/img_rych7.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>82.35897435897436</v>
+        <v>30.4468085106383</v>
       </c>
       <c r="N11">
-        <v>65.53846153846153</v>
+        <v>23.4468085106383</v>
       </c>
       <c r="O11">
-        <v>73.94871794871796</v>
+        <v>26.9468085106383</v>
       </c>
       <c r="P11">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1258,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>173</v>
+        <v>335</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1267,53 +1267,53 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_md6k3.png</t>
+          <t>stimuli/img_nb8p4.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>81.57142857142857</v>
+        <v>16.36170212765957</v>
       </c>
       <c r="N12">
-        <v>63.66666666666666</v>
+        <v>12.70212765957447</v>
       </c>
       <c r="O12">
-        <v>72.61904761904762</v>
+        <v>14.53191489361702</v>
       </c>
       <c r="P12">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1335,7 +1335,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>174</v>
+        <v>336</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1359,38 +1359,38 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_g13d5.png</t>
+          <t>stimuli/img_jkm86.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>73</v>
+        <v>58.32558139534883</v>
       </c>
       <c r="N13">
-        <v>51.51111111111111</v>
+        <v>38.65116279069768</v>
       </c>
       <c r="O13">
-        <v>62.25555555555556</v>
+        <v>48.48837209302326</v>
       </c>
       <c r="P13">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V13">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1412,7 +1412,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>175</v>
+        <v>337</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1436,38 +1436,38 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_9bkl9.png</t>
+          <t>stimuli/img_3sw8t.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>46.62162162162162</v>
+        <v>67.48888888888889</v>
       </c>
       <c r="N14">
-        <v>34.27027027027027</v>
+        <v>48.51111111111111</v>
       </c>
       <c r="O14">
-        <v>40.44594594594595</v>
+        <v>58</v>
       </c>
       <c r="P14">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1489,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>176</v>
+        <v>338</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1513,38 +1513,38 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_b2jli.png</t>
+          <t>stimuli/img_swcci.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>83.15625</v>
+        <v>49.82926829268293</v>
       </c>
       <c r="N15">
-        <v>63.8125</v>
+        <v>28.46341463414634</v>
       </c>
       <c r="O15">
-        <v>73.484375</v>
+        <v>39.14634146341464</v>
       </c>
       <c r="P15">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1566,7 +1566,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>177</v>
+        <v>339</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1575,53 +1575,53 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_463mq.png</t>
+          <t>stimuli/img_xzyzy.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>51.35294117647059</v>
+        <v>85.37209302325581</v>
       </c>
       <c r="N16">
-        <v>30.20588235294118</v>
+        <v>68.90697674418605</v>
       </c>
       <c r="O16">
-        <v>40.77941176470588</v>
+        <v>77.13953488372093</v>
       </c>
       <c r="P16">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1643,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>178</v>
+        <v>340</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1667,38 +1667,38 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_uegbb.png</t>
+          <t>stimuli/img_7wquy.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>78.80952380952381</v>
+        <v>50.59375</v>
       </c>
       <c r="N17">
-        <v>61.52380952380953</v>
+        <v>30.59375</v>
       </c>
       <c r="O17">
-        <v>70.16666666666667</v>
+        <v>40.59375</v>
       </c>
       <c r="P17">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1720,7 +1720,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>179</v>
+        <v>341</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1744,20 +1744,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_gztbt.png</t>
+          <t>stimuli/img_ys3qz.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>55.06451612903226</v>
+        <v>46.79545454545455</v>
       </c>
       <c r="N18">
-        <v>26.09677419354839</v>
+        <v>31.20454545454545</v>
       </c>
       <c r="O18">
-        <v>40.58064516129032</v>
+        <v>39</v>
       </c>
       <c r="P18">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -1797,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>180</v>
+        <v>342</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1806,53 +1806,53 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_i6wsx.png</t>
+          <t>stimuli/img_3tnh4.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>79.07142857142857</v>
+        <v>80.43243243243244</v>
       </c>
       <c r="N19">
-        <v>58</v>
+        <v>58.72972972972973</v>
       </c>
       <c r="O19">
-        <v>68.53571428571428</v>
+        <v>69.58108108108108</v>
       </c>
       <c r="P19">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V19">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1874,7 +1874,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>181</v>
+        <v>343</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1898,20 +1898,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_7wquy.png</t>
+          <t>stimuli/img_gztbt.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>50.59375</v>
+        <v>55.06451612903226</v>
       </c>
       <c r="N20">
-        <v>30.59375</v>
+        <v>26.09677419354839</v>
       </c>
       <c r="O20">
-        <v>40.59375</v>
+        <v>40.58064516129032</v>
       </c>
       <c r="P20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -1951,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>182</v>
+        <v>344</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1975,20 +1975,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_3tnh4.png</t>
+          <t>stimuli/img_b2jli.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>80.43243243243244</v>
+        <v>83.15625</v>
       </c>
       <c r="N21">
-        <v>58.72972972972973</v>
+        <v>63.8125</v>
       </c>
       <c r="O21">
-        <v>69.58108108108108</v>
+        <v>73.484375</v>
       </c>
       <c r="P21">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -2028,7 +2028,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>183</v>
+        <v>345</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2052,38 +2052,38 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_swcci.png</t>
+          <t>stimuli/img_ub9nn.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>49.82926829268293</v>
+        <v>78.77142857142857</v>
       </c>
       <c r="N22">
-        <v>28.46341463414634</v>
+        <v>60.37142857142857</v>
       </c>
       <c r="O22">
-        <v>39.14634146341464</v>
+        <v>69.57142857142857</v>
       </c>
       <c r="P22">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2105,7 +2105,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>184</v>
+        <v>346</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2129,20 +2129,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_xtb79.png</t>
+          <t>stimuli/img_463mq.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>55.59375</v>
+        <v>51.35294117647059</v>
       </c>
       <c r="N23">
-        <v>31.40625</v>
+        <v>30.20588235294118</v>
       </c>
       <c r="O23">
-        <v>43.5</v>
+        <v>40.77941176470588</v>
       </c>
       <c r="P23">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -2182,7 +2182,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>185</v>
+        <v>347</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2206,17 +2206,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_7caxh.png</t>
+          <t>stimuli/img_uegbb.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>83.38095238095238</v>
+        <v>78.80952380952381</v>
       </c>
       <c r="N24">
-        <v>64.26190476190476</v>
+        <v>61.52380952380953</v>
       </c>
       <c r="O24">
-        <v>73.82142857142857</v>
+        <v>70.16666666666667</v>
       </c>
       <c r="P24">
         <v>42</v>
@@ -2259,7 +2259,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>186</v>
+        <v>348</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2268,35 +2268,35 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_8dmpq.png</t>
+          <t>stimuli/img_91csq.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>30.65909090909091</v>
+        <v>50.44736842105263</v>
       </c>
       <c r="N25">
-        <v>24.11363636363636</v>
+        <v>28.34210526315789</v>
       </c>
       <c r="O25">
-        <v>27.38636363636364</v>
+        <v>39.39473684210526</v>
       </c>
       <c r="P25">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -2336,7 +2336,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>187</v>
+        <v>349</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2345,53 +2345,53 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_ys3qz.png</t>
+          <t>stimuli/img_o30wb.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>46.79545454545455</v>
+        <v>81.06666666666666</v>
       </c>
       <c r="N26">
-        <v>31.20454545454545</v>
+        <v>65.37777777777778</v>
       </c>
       <c r="O26">
-        <v>39</v>
+        <v>73.22222222222223</v>
       </c>
       <c r="P26">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2413,7 +2413,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>188</v>
+        <v>350</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2437,38 +2437,38 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_3sw8t.png</t>
+          <t>stimuli/img_8dmpq.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>67.48888888888889</v>
+        <v>30.65909090909091</v>
       </c>
       <c r="N27">
-        <v>48.51111111111111</v>
+        <v>24.11363636363636</v>
       </c>
       <c r="O27">
-        <v>58</v>
+        <v>27.38636363636364</v>
       </c>
       <c r="P27">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2490,7 +2490,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2514,38 +2514,38 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_awuev.png</t>
+          <t>stimuli/img_th7xh.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>44.21052631578947</v>
+        <v>82.35897435897436</v>
       </c>
       <c r="N28">
-        <v>24.26315789473684</v>
+        <v>65.53846153846153</v>
       </c>
       <c r="O28">
-        <v>34.23684210526316</v>
+        <v>73.94871794871796</v>
       </c>
       <c r="P28">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -2567,7 +2567,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>190</v>
+        <v>352</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2576,53 +2576,53 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_xzyzy.png</t>
+          <t>stimuli/img_c30d1.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>85.37209302325581</v>
+        <v>78.875</v>
       </c>
       <c r="N29">
-        <v>68.90697674418605</v>
+        <v>60.34375</v>
       </c>
       <c r="O29">
-        <v>77.13953488372093</v>
+        <v>69.609375</v>
       </c>
       <c r="P29">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V29">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -2644,7 +2644,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>191</v>
+        <v>353</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2668,38 +2668,38 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_c0vzo.png</t>
+          <t>stimuli/img_g13d5.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>21.51162790697675</v>
+        <v>73</v>
       </c>
       <c r="N30">
-        <v>8.232558139534884</v>
+        <v>51.51111111111111</v>
       </c>
       <c r="O30">
-        <v>14.87209302325581</v>
+        <v>62.25555555555556</v>
       </c>
       <c r="P30">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V30">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -2721,7 +2721,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>192</v>
+        <v>354</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2745,38 +2745,38 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_5jy9c.png</t>
+          <t>stimuli/img_c0vzo.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>87.37209302325581</v>
+        <v>21.51162790697675</v>
       </c>
       <c r="N31">
-        <v>79.18604651162791</v>
+        <v>8.232558139534884</v>
       </c>
       <c r="O31">
-        <v>83.27906976744185</v>
+        <v>14.87209302325581</v>
       </c>
       <c r="P31">
         <v>43</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U31">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2798,7 +2798,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>193</v>
+        <v>355</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2807,53 +2807,53 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_ymgcb.png</t>
+          <t>stimuli/img_zxvl3.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>83.73684210526316</v>
+        <v>68.78260869565217</v>
       </c>
       <c r="N32">
-        <v>61.13157894736842</v>
+        <v>47.56521739130435</v>
       </c>
       <c r="O32">
-        <v>72.43421052631579</v>
+        <v>58.17391304347827</v>
       </c>
       <c r="P32">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V32">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -2875,7 +2875,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>194</v>
+        <v>356</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2899,38 +2899,38 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/img_gv750.png</t>
+          <t>stimuli/img_uhmld.png</t>
         </is>
       </c>
       <c r="M33">
-        <v>83.51428571428572</v>
+        <v>54.19354838709678</v>
       </c>
       <c r="N33">
-        <v>61.88571428571429</v>
+        <v>32</v>
       </c>
       <c r="O33">
-        <v>72.7</v>
+        <v>43.09677419354838</v>
       </c>
       <c r="P33">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R33">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T33">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -2952,7 +2952,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>195</v>
+        <v>357</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2961,53 +2961,53 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_uhmld.png</t>
+          <t>stimuli/img_jpldg.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>54.19354838709678</v>
+        <v>79.54545454545455</v>
       </c>
       <c r="N34">
-        <v>32</v>
+        <v>57.75</v>
       </c>
       <c r="O34">
-        <v>43.09677419354838</v>
+        <v>68.64772727272728</v>
       </c>
       <c r="P34">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -3029,7 +3029,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>196</v>
+        <v>358</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3038,35 +3038,35 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_a9he3.png</t>
+          <t>stimuli/img_gv750.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>83.06521739130434</v>
+        <v>83.51428571428572</v>
       </c>
       <c r="N35">
-        <v>63.95652173913044</v>
+        <v>61.88571428571429</v>
       </c>
       <c r="O35">
-        <v>73.51086956521739</v>
+        <v>72.7</v>
       </c>
       <c r="P35">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -3106,7 +3106,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>197</v>
+        <v>359</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3130,38 +3130,38 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_w8yhd.png</t>
+          <t>stimuli/img_165pk.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>55.74418604651163</v>
+        <v>85.73333333333333</v>
       </c>
       <c r="N36">
-        <v>38.90697674418605</v>
+        <v>69.22222222222223</v>
       </c>
       <c r="O36">
-        <v>47.32558139534883</v>
+        <v>77.47777777777779</v>
       </c>
       <c r="P36">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q36">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R36">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S36">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T36">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U36">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V36">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -3183,7 +3183,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>198</v>
+        <v>360</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3192,53 +3192,53 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>stimuli/img_ub9nn.png</t>
+          <t>stimuli/img_5jy9c.png</t>
         </is>
       </c>
       <c r="M37">
-        <v>78.77142857142857</v>
+        <v>87.37209302325581</v>
       </c>
       <c r="N37">
-        <v>60.37142857142857</v>
+        <v>79.18604651162791</v>
       </c>
       <c r="O37">
-        <v>69.57142857142857</v>
+        <v>83.27906976744185</v>
       </c>
       <c r="P37">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V37">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3260,7 +3260,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>199</v>
+        <v>361</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3269,53 +3269,53 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_nb8p4.png</t>
+          <t>stimuli/img_lgyo6.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>16.36170212765957</v>
+        <v>54.68421052631579</v>
       </c>
       <c r="N38">
-        <v>12.70212765957447</v>
+        <v>27.18421052631579</v>
       </c>
       <c r="O38">
-        <v>14.53191489361702</v>
+        <v>40.93421052631579</v>
       </c>
       <c r="P38">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -3337,7 +3337,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>200</v>
+        <v>362</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3346,35 +3346,35 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_rych7.png</t>
+          <t>stimuli/img_awuev.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>30.4468085106383</v>
+        <v>44.21052631578947</v>
       </c>
       <c r="N39">
-        <v>23.4468085106383</v>
+        <v>24.26315789473684</v>
       </c>
       <c r="O39">
-        <v>26.9468085106383</v>
+        <v>34.23684210526316</v>
       </c>
       <c r="P39">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -3414,7 +3414,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>201</v>
+        <v>363</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3423,53 +3423,53 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_91csq.png</t>
+          <t>stimuli/img_9bkl9.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>50.44736842105263</v>
+        <v>46.62162162162162</v>
       </c>
       <c r="N40">
-        <v>28.34210526315789</v>
+        <v>34.27027027027027</v>
       </c>
       <c r="O40">
-        <v>39.39473684210526</v>
+        <v>40.44594594594595</v>
       </c>
       <c r="P40">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -3491,7 +3491,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>202</v>
+        <v>364</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3500,53 +3500,53 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_dg5h7.png</t>
+          <t>stimuli/img_md6k3.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>88.72093023255815</v>
+        <v>81.57142857142857</v>
       </c>
       <c r="N41">
-        <v>76.06976744186046</v>
+        <v>63.66666666666666</v>
       </c>
       <c r="O41">
-        <v>82.3953488372093</v>
+        <v>72.61904761904762</v>
       </c>
       <c r="P41">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V41">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
